--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:23:29+00:00</t>
+    <t>2021-12-13T19:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:24:22+00:00</t>
+    <t>2022-05-27T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T12:40:13+00:00</t>
+    <t>2022-05-27T12:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T12:41:17+00:00</t>
+    <t>2022-08-10T15:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T15:01:35+00:00</t>
+    <t>2022-08-10T15:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T15:02:39+00:00</t>
+    <t>2022-08-23T15:00:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T15:00:44+00:00</t>
+    <t>2022-09-13T16:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T16:54:38+00:00</t>
+    <t>2022-10-11T14:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Study Cohort</t>
+  </si>
+  <si>
+    <t>ConsentGroup</t>
+  </si>
+  <si>
+    <t>Study Consent Group</t>
   </si>
   <si>
     <t>Summary</t>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,6 +677,18 @@
       </c>
       <c r="D13" s="2"/>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T14:45:04+00:00</t>
+    <t>2022-10-11T14:47:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig/CodeSystem/ncpi</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T14:47:05+00:00</t>
+    <t>2022-10-31T22:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,19 +156,49 @@
     <t>CohortCount</t>
   </si>
   <si>
-    <t>Number of Cohorts</t>
+    <t>Number of cohorts that are part of this study</t>
+  </si>
+  <si>
+    <t>SubStudyCount</t>
+  </si>
+  <si>
+    <t>Number of sub-studies that are part of this study</t>
   </si>
   <si>
     <t>SampleCount</t>
   </si>
   <si>
-    <t>Number of Samples</t>
+    <t>Number of samples that are part of this study</t>
   </si>
   <si>
     <t>Participant</t>
   </si>
   <si>
-    <t>Number of Participants</t>
+    <t>Number of participants that are part of this study</t>
+  </si>
+  <si>
+    <t>VariableCount</t>
+  </si>
+  <si>
+    <t>Number of variables that are part of this study</t>
+  </si>
+  <si>
+    <t>AnalysesCount</t>
+  </si>
+  <si>
+    <t>Number of analyses that are part of this study</t>
+  </si>
+  <si>
+    <t>MolecularDatasetCount</t>
+  </si>
+  <si>
+    <t>Number of molecular datasets that are part of this study</t>
+  </si>
+  <si>
+    <t>PhenotypeDatasetCount</t>
+  </si>
+  <si>
+    <t>Number of phenotype datasets that are part of this study</t>
   </si>
   <si>
     <t>StorageSize</t>
@@ -513,7 +543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,6 +719,66 @@
       </c>
       <c r="D14" s="2"/>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:37+00:00</t>
+    <t>2022-10-31T22:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:57+00:00</t>
+    <t>2022-11-28T21:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:06:44+00:00</t>
+    <t>2022-11-28T21:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:07:57+00:00</t>
+    <t>2022-12-09T17:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T17:30:30+00:00</t>
+    <t>2023-09-15T20:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,10 +356,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-ncpi.xlsx
+++ b/CodeSystem-ncpi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T20:59:49+00:00</t>
+    <t>2023-09-15T21:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
